--- a/R_Scripts/MatthewR/Category Analysis/New Method Tables.xlsx
+++ b/R_Scripts/MatthewR/Category Analysis/New Method Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Desktop/CDRC19/R_Scripts/MatthewR/Category Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5A2827-7910-7140-A4C9-25713C879380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF09D5A0-CD95-0A44-9F1A-775F6431CFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14420" windowHeight="16340" activeTab="4" xr2:uid="{241EA9B0-9B53-E34F-819A-8DC4F1FB891F}"/>
+    <workbookView xWindow="13540" yWindow="500" windowWidth="14420" windowHeight="16340" activeTab="1" xr2:uid="{241EA9B0-9B53-E34F-819A-8DC4F1FB891F}"/>
   </bookViews>
   <sheets>
     <sheet name="food exp" sheetId="1" r:id="rId1"/>
@@ -322,12 +322,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -357,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -404,6 +410,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -887,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52A3217-22D3-E046-B078-65B12145BDDF}">
   <dimension ref="D4:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1044,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09C6C27-A6A9-2946-8BA8-BF5066655791}">
   <dimension ref="G4:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -1191,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39664E0-251F-6C4A-A9B9-F9F864404527}">
   <dimension ref="E4:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1231,13 +1240,13 @@
       <c r="G5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="22">
         <v>4</v>
       </c>
     </row>
@@ -1251,13 +1260,13 @@
       <c r="G6" s="13">
         <v>-18.18</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="22">
         <v>5</v>
       </c>
     </row>
@@ -1271,13 +1280,13 @@
       <c r="G7" s="13">
         <v>-0.33</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="22">
         <v>5</v>
       </c>
     </row>
@@ -1291,13 +1300,13 @@
       <c r="G8" s="13">
         <v>-7.43</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="22">
         <v>4</v>
       </c>
     </row>
@@ -1690,7 +1699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB6AC5F-9EB6-2948-8023-28B6A904341B}">
   <dimension ref="D4:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
